--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -175,13 +175,13 @@
     <t xml:space="preserve">BOM</t>
   </si>
   <si>
+    <t xml:space="preserve">親品目ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ic_parent_i_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ic_i_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">親品目ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ic_parent_i_id</t>
   </si>
   <si>
     <t xml:space="preserve">ic_effective_date</t>
@@ -581,7 +581,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>
@@ -727,7 +727,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.38"/>
@@ -1005,10 +1005,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.7"/>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">品目!C3</f>
@@ -1068,9 +1068,9 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="0" t="str">
@@ -1245,7 +1245,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.77"/>
@@ -1426,7 +1426,7 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.81"/>
@@ -1636,7 +1636,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.1"/>
@@ -1838,7 +1838,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>107</v>

--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\nautilus\202004_07_NEDO\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\hishidama\git\tsurugi\cost-accounting-benchmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF3BA8-6709-4837-8B9F-CE275CF6FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15216772-8F4C-4A8A-8DA5-00C1D93A32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="2955" windowWidth="27075" windowHeight="18705" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工場" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="度量衡" sheetId="6" r:id="rId6"/>
     <sheet name="結果" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -518,13 +518,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -930,7 +928,6 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -954,7 +951,6 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -1103,7 +1099,7 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1208,7 +1204,6 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1232,7 +1227,6 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -1309,7 +1303,7 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="str">
@@ -1378,7 +1372,7 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="str">
@@ -1394,7 +1388,7 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
@@ -1411,7 +1405,7 @@
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
@@ -1442,7 +1436,6 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1466,7 +1459,6 @@
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
@@ -1616,7 +1608,7 @@
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
@@ -1644,7 +1636,6 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
@@ -1827,7 +1818,6 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1851,7 +1841,6 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
@@ -2026,7 +2015,6 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -2050,7 +2038,6 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
@@ -2081,7 +2068,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2231,11 +2218,10 @@
         <f>製造品目!C7</f>
         <v>unsigned numeric</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <f>製造品目!D7</f>
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="G8" t="s">
         <v>112</v>
       </c>
@@ -2303,8 +2289,7 @@
         <v>35</v>
       </c>
       <c r="D12">
-        <f>D10+2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2317,7 +2302,7 @@
       <c r="A13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>123</v>
       </c>
       <c r="C13" t="s">
@@ -2350,7 +2335,7 @@
       <c r="A15" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
       <c r="C15" t="s">
@@ -2370,7 +2355,7 @@
       <c r="A16" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>130</v>
       </c>
       <c r="C16" t="str">
@@ -2386,7 +2371,7 @@
       <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>132</v>
       </c>
       <c r="C17" t="s">
@@ -2433,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2466,14 +2451,14 @@
       <c r="A21" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>2</v>

--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\hishidama\git\tsurugi\cost-accounting-benchmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15216772-8F4C-4A8A-8DA5-00C1D93A32B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3999C-0DEC-4A33-B444-B5F3613298F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2955" windowWidth="27075" windowHeight="18705" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="2940" windowWidth="27075" windowHeight="18705" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工場" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="品目構成" sheetId="3" r:id="rId3"/>
     <sheet name="製造品目" sheetId="4" r:id="rId4"/>
     <sheet name="原価" sheetId="5" r:id="rId5"/>
-    <sheet name="度量衡" sheetId="6" r:id="rId6"/>
-    <sheet name="結果" sheetId="7" r:id="rId7"/>
+    <sheet name="在庫" sheetId="8" r:id="rId6"/>
+    <sheet name="度量衡" sheetId="6" r:id="rId7"/>
+    <sheet name="結果" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
   <si>
     <t>工場マスター</t>
   </si>
@@ -478,6 +479,89 @@
   </si>
   <si>
     <t>製造原価×生産数</t>
+  </si>
+  <si>
+    <t>在庫テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_i_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_stock_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_stock_quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_stock_amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価マスター．在庫金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kg, L, mに統一</t>
+    <rPh sb="9" eb="11">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価マスター．在庫数量（単位統一後）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価マスター．品目ID</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒンモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1666,7 +1750,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1867,6 +1951,218 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C235D5-E401-491B-A45B-BE54012A0C8E}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="1024" max="1024" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="str">
+        <f>原価!C4</f>
+        <v>unique ID</v>
+      </c>
+      <c r="D4">
+        <f>原価!D4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="str">
+        <f>度量衡!C3</f>
+        <v>variable text</v>
+      </c>
+      <c r="D5">
+        <f>度量衡!D3</f>
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="str">
+        <f>原価!C6</f>
+        <v>unsigned numeric</v>
+      </c>
+      <c r="D6">
+        <f>原価!D6</f>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f>原価!E6</f>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="str">
+        <f>原価!C7</f>
+        <v>unsigned numeric</v>
+      </c>
+      <c r="D7">
+        <f>原価!D7</f>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f>原価!E7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2063,12 +2359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\hishidama\git\tsurugi\cost-accounting-benchmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3999C-0DEC-4A33-B444-B5F3613298F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3E24-FC01-4DAB-9675-E47CFE3B443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2715" yWindow="2940" windowWidth="27075" windowHeight="18705" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
   <si>
     <t>工場マスター</t>
   </si>
@@ -489,18 +489,6 @@
   </si>
   <si>
     <t>stock_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_i_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_stock_unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_stock_quantity</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -525,42 +513,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kg, L, mに統一</t>
-    <rPh sb="9" eb="11">
-      <t>トウイツ</t>
+    <t>工場ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>原価マスター．在庫数量（単位統一後）</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原価マスター．品目ID</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒンモク</t>
-    </rPh>
+    <t>s_f_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1952,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C235D5-E401-491B-A45B-BE54012A0C8E}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2000,7 +1960,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2014,100 +1974,61 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C4" t="str">
-        <f>原価!C4</f>
+        <f>工場!C3</f>
         <v>unique ID</v>
       </c>
       <c r="D4">
-        <f>原価!D4</f>
-        <v>9</v>
+        <f>工場!D3</f>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="str">
-        <f>度量衡!C3</f>
-        <v>variable text</v>
-      </c>
-      <c r="D5">
-        <f>度量衡!D3</f>
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="str">
-        <f>原価!C6</f>
-        <v>unsigned numeric</v>
-      </c>
-      <c r="D6">
-        <f>原価!D6</f>
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f>原価!E6</f>
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" t="str">
         <f>原価!C7</f>
         <v>unsigned numeric</v>
       </c>
-      <c r="D7">
+      <c r="D5">
         <f>原価!D7</f>
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="E5">
         <f>原価!E7</f>
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>153</v>
-      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2120,36 +2041,30 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\hishidama\git\tsurugi\cost-accounting-benchmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C3E24-FC01-4DAB-9675-E47CFE3B443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E072ED3-275D-42D3-9E85-D38698C49ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2940" windowWidth="27075" windowHeight="18705" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12435" yWindow="3045" windowWidth="27090" windowHeight="18705" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工場" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="品目構成" sheetId="3" r:id="rId3"/>
     <sheet name="製造品目" sheetId="4" r:id="rId4"/>
     <sheet name="原価" sheetId="5" r:id="rId5"/>
-    <sheet name="在庫" sheetId="8" r:id="rId6"/>
+    <sheet name="在庫履歴" sheetId="8" r:id="rId6"/>
     <sheet name="度量衡" sheetId="6" r:id="rId7"/>
     <sheet name="結果" sheetId="7" r:id="rId8"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>工場マスター</t>
   </si>
@@ -479,17 +479,6 @@
   </si>
   <si>
     <t>製造原価×生産数</t>
-  </si>
-  <si>
-    <t>在庫テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>stock_table</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>s_stock_amount</t>
@@ -521,6 +510,95 @@
   </si>
   <si>
     <t>s_f_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫金額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_i_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時分秒</t>
+    <rPh sb="0" eb="3">
+      <t>ジフンビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_stock_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_stock_quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価マスター．在庫単位</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原価マスター．在庫数量</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1710,7 +1788,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1912,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C235D5-E401-491B-A45B-BE54012A0C8E}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1929,10 +2007,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1960,7 +2038,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1974,17 +2052,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" t="str">
-        <f>工場!C3</f>
+        <f>原価!C3</f>
         <v>unique ID</v>
       </c>
       <c r="D4">
-        <f>工場!D3</f>
+        <f>原価!D3</f>
         <v>4</v>
       </c>
       <c r="F4" t="s">
@@ -1993,78 +2071,159 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C5" t="str">
+        <f>原価!C4</f>
+        <v>unique ID</v>
+      </c>
+      <c r="D5">
+        <f>原価!D4</f>
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="str">
+        <f>原価!C5</f>
+        <v>variable text</v>
+      </c>
+      <c r="D7">
+        <f>原価!D5</f>
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="str">
+        <f>原価!C6</f>
+        <v>unsigned numeric</v>
+      </c>
+      <c r="D8">
+        <f>原価!D6</f>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f>原価!E6</f>
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="str">
         <f>原価!C7</f>
         <v>unsigned numeric</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <f>原価!D7</f>
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <f>原価!E7</f>
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C10" s="1"/>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cygwin\home\hishidama\git\tsurugi\cost-accounting-benchmark\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E072ED3-275D-42D3-9E85-D38698C49ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4112BD-D5CD-4D44-B25D-2840C5B41ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="3045" windowWidth="27090" windowHeight="18705" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="4095" windowWidth="27090" windowHeight="18705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工場" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
   <si>
     <t>工場マスター</t>
   </si>
@@ -103,16 +103,10 @@
     <t>i_id</t>
   </si>
   <si>
-    <t>開始日</t>
-  </si>
-  <si>
     <t>i_effective_date</t>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>終了日</t>
   </si>
   <si>
     <t>i_expired_date</t>
@@ -542,13 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時刻</t>
-    <rPh sb="0" eb="2">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -598,6 +585,37 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算日付</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用開始日</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用終了日</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -961,9 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1102,9 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1165,13 +1179,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1182,13 +1196,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1196,10 +1210,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1210,10 +1224,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1222,15 +1236,15 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="str">
         <f>度量衡!C3</f>
@@ -1241,18 +1255,18 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1261,15 +1275,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="str">
         <f>度量衡!C3</f>
@@ -1280,18 +1294,18 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1300,15 +1314,15 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>度量衡!C3</f>
@@ -1319,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1378,27 +1392,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="1022" max="1024" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1423,10 +1435,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="str">
         <f>品目!C3</f>
@@ -1445,7 +1457,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="str">
         <f>品目!C3</f>
@@ -1461,13 +1473,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1478,13 +1490,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1492,10 +1504,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" t="str">
         <f>度量衡!C3</f>
@@ -1508,13 +1520,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1525,13 +1537,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1540,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1610,9 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1625,13 +1635,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1659,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="str">
         <f>工場!C3</f>
@@ -1678,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="str">
         <f>品目!C3</f>
@@ -1692,18 +1702,18 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1714,13 +1724,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1728,13 +1738,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1787,9 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1802,10 +1810,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1833,7 +1841,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="str">
         <f>工場!C3</f>
@@ -1852,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="str">
         <f>品目!C3</f>
@@ -1866,15 +1874,15 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="str">
         <f>度量衡!C3</f>
@@ -1885,18 +1893,18 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1907,13 +1915,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -1922,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1992,9 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C235D5-E401-491B-A45B-BE54012A0C8E}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2007,10 +2013,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2035,13 +2041,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2052,68 +2058,68 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" t="str">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="str">
         <f>原価!C3</f>
         <v>unique ID</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f>原価!D3</f>
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" t="str">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="str">
         <f>原価!C4</f>
         <v>unique ID</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f>原価!D4</f>
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" t="str">
         <f>原価!C5</f>
@@ -2124,15 +2130,15 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" t="str">
         <f>原価!C6</f>
@@ -2147,15 +2153,15 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" t="str">
         <f>原価!C7</f>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2240,9 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2254,10 +2258,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2282,10 +2286,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -2297,15 +2301,15 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2316,10 +2320,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -2328,15 +2332,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="str">
         <f>C3</f>
@@ -2347,18 +2351,18 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -2367,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -2437,9 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2452,10 +2454,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2483,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="str">
         <f>工場!C3</f>
@@ -2499,13 +2501,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2516,10 +2518,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" t="str">
         <f>品目!C3</f>
@@ -2533,15 +2535,15 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="str">
         <f>品目!C3</f>
@@ -2555,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2563,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="str">
         <f>品目!C3</f>
@@ -2579,10 +2581,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="str">
         <f>製造品目!C7</f>
@@ -2593,15 +2595,15 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" t="str">
         <f>度量衡!C3</f>
@@ -2614,13 +2616,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2629,15 +2631,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" t="str">
         <f>度量衡!C3</f>
@@ -2650,13 +2652,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -2665,18 +2667,18 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -2687,10 +2689,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" t="str">
         <f>度量衡!C3</f>
@@ -2703,13 +2705,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -2718,15 +2720,15 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" t="str">
         <f>度量衡!C3</f>
@@ -2739,13 +2741,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -2754,18 +2756,18 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -2774,18 +2776,18 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -2794,18 +2796,18 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -2814,18 +2816,18 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -2834,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
